--- a/Fin Buff Calc.xlsx
+++ b/Fin Buff Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\16.-IQ\4.-A053LM1\7.- CORRECCION ATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\16.-IQ\1-A051RMD\7.-IQC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE93B9D-705C-4123-859D-DCE422BE87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D50710-D5B1-40D8-A435-85EFB8F5B144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FII9xdQ8nYlcZ53A4GQrWQ/e825B6fn3unw+plQMytnFsUkitSJRJ2Cuh7xlkEp6QTwrsu+DN7Z23felzt5+xw==" workbookSaltValue="Zd7fKGY+E4S7GJKHgn67NQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1127,7 +1127,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15">
-        <v>342152.41</v>
+        <v>422421.16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12">
-        <v>98101.53</v>
+        <v>147677.48000000001</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D6" s="10">
         <f>IF(D3,D5/D3,0)</f>
-        <v>0.28671880464030636</v>
+        <v>0.34959773321961435</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>5</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D8" s="22">
         <f>D4*0.3+(IF(AND(D6&lt;10%),0,IF(AND(D6&gt;=10%,D6&lt;33%),D5*15%,IF(AND(D6&gt;=33%,D6&lt;50%),D5*20%,IF(AND(D6&gt;=50%,D6&lt;65%),D5*25%,IF(AND(D6&gt;=65%),D5*35%))))))</f>
-        <v>14715.229499999999</v>
+        <v>29535.496000000003</v>
       </c>
       <c r="E8" s="21">
         <f>D8/120</f>
-        <v>122.62691249999999</v>
+        <v>246.12913333333336</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="49"/>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="D9" s="14">
         <f>D8*1.5</f>
-        <v>22072.844249999998</v>
+        <v>44303.244000000006</v>
       </c>
       <c r="E9" s="13">
         <f>D9/120</f>
-        <v>183.94036874999998</v>
+        <v>369.19370000000004</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="49"/>
